--- a/medicine/Psychotrope/Budějovický_měšťanský_pivovar/Budějovický_měšťanský_pivovar.xlsx
+++ b/medicine/Psychotrope/Budějovický_měšťanský_pivovar/Budějovický_měšťanský_pivovar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bud%C4%9Bjovick%C3%BD_m%C4%9B%C5%A1%C5%A5ansk%C3%BD_pivovar</t>
+          <t>Budějovický_měšťanský_pivovar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Budějovický měšťanský pivovar (ou Budweiser Bürgerbräu en allemand) est une brasserie tchèque produisant de la bière (Budweiser Bier) depuis 1795 à České Budějovice (Budweis). La ville faisait alors partie du royaume de Bohême, et l'entreprise fut fondée par des personnes germanophones.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bud%C4%9Bjovick%C3%BD_m%C4%9B%C5%A1%C5%A5ansk%C3%BD_pivovar</t>
+          <t>Budějovický_měšťanský_pivovar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis la fondation de la ville par le roi Ottokar II de Bohême en 1265, la bière est brassée à Budějovice ; l'empereur Charles IV a confirmé le privilège des citoyens. À partir de 1585, le droit de brassage était un terrain de compétition entre les villes voisines de Budějovice et de Rudolfov (Rudolfstadt).
 En 1795, deux brasseries locales se sont associées pour créer l'entreprise commune Budweiser Bürgerbräu. La société a profité de l'ouverture du chemin de fer hippomobile Budweis-Linz-Gmunden entre 1827 et 1836. En 1875 déjà, on exportait les bières en Amerique où l'appellation « Budweiser », similaire à « Pilsner » ou « pils », est très courante. À partir de 1895, Budweiser Bürgerbräu était fournisseur de la cour royale de Wurtemberg.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bud%C4%9Bjovick%C3%BD_m%C4%9B%C5%A1%C5%A5ansk%C3%BD_pivovar</t>
+          <t>Budějovický_měšťanský_pivovar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1795
 Samson Premium
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bud%C4%9Bjovick%C3%BD_m%C4%9B%C5%A1%C5%A5ansk%C3%BD_pivovar</t>
+          <t>Budějovický_měšťanský_pivovar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Site officiel
  Portail de la bière   Portail de la Tchéquie                    </t>
